--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296071.484664036</v>
+        <v>1295393.303356504</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183199</v>
+        <v>311885.1970183201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.69698309189127</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>23.93825431390912</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037787</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.20762267428245</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.93811835407753</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>86.11330760612044</v>
+        <v>55.80993454355223</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394765</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="V12" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W12" t="n">
-        <v>72.49301368962193</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X12" t="n">
-        <v>122.7111663740568</v>
+        <v>23.10134455208097</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663596</v>
+        <v>29.17271624663599</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278813</v>
+        <v>9.003274493278832</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393261</v>
+        <v>41.14309824393263</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521118</v>
+        <v>29.52954681521121</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269439</v>
+        <v>94.44472612269442</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706024</v>
+        <v>50.89744529706027</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194567</v>
+        <v>96.09913720194569</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085287</v>
+        <v>27.7078855208529</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677876</v>
+        <v>22.92970292677879</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>46.81399126346887</v>
       </c>
       <c r="G14" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037792</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.20762267428239</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W14" t="n">
-        <v>5.758864737813781</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R15" t="n">
-        <v>118.5494263667591</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>108.6276139218459</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332434</v>
+        <v>20.73635203332425</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394771</v>
+        <v>43.01612417394762</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801264</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962199</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="X15" t="n">
-        <v>23.101344552081</v>
+        <v>23.10134455208092</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663601</v>
+        <v>29.17271624663593</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278864</v>
+        <v>9.003274493278775</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393266</v>
+        <v>41.14309824393258</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521124</v>
+        <v>29.52954681521115</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269445</v>
+        <v>94.44472612269436</v>
       </c>
       <c r="V16" t="n">
-        <v>50.8974452970603</v>
+        <v>50.89744529706022</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194572</v>
+        <v>96.09913720194564</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085293</v>
+        <v>27.70788552085284</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677882</v>
+        <v>22.92970292677873</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>29.55915463258606</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363432</v>
+        <v>17.12581689363452</v>
       </c>
       <c r="E17" t="n">
         <v>50.83256931304339</v>
@@ -1859,7 +1859,7 @@
         <v>98.18116457427345</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653696</v>
+        <v>26.26582637653695</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>101.9429845537779</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2157,76 +2157,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="C21" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>122.7111663740567</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>108.0839953422692</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>122.7111663740568</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>122.7111663740568</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
     </row>
     <row r="22">
@@ -2400,59 +2400,59 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.141010788491229</v>
+      </c>
+      <c r="R24" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="E24" t="n">
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="U24" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>101.9429845537779</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2606,7 +2606,7 @@
         <v>14.35336722562556</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389446</v>
+        <v>9.498608495389448</v>
       </c>
       <c r="U26" t="n">
         <v>37.22910417518455</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>85.13956781491356</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02733785443131</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U27" t="n">
         <v>24.30710999505468</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X27" t="n">
         <v>4.392330373187974</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774299</v>
+        <v>212.7987244064957</v>
       </c>
     </row>
     <row r="28">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1666563115506</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2849133148961</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D29" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953536</v>
       </c>
       <c r="F29" t="n">
-        <v>190.2786655737308</v>
+        <v>190.2786655737309</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9069232565835</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H29" t="n">
-        <v>133.991585058847</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148484</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.3533672256255</v>
+        <v>14.35336722562558</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389389</v>
+        <v>9.498608495389472</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518449</v>
+        <v>37.22910417518457</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9591995428693</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W29" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8621302284234</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.65259400731559</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>66.67754016756965</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.027337854431253</v>
+        <v>2.027337854431338</v>
       </c>
       <c r="U30" t="n">
-        <v>24.30710999505462</v>
+        <v>24.30710999505471</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911956</v>
+        <v>27.72833684911964</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072899</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.392330373188003</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774293</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503958</v>
+        <v>22.43408406503966</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631815</v>
+        <v>10.82053263631824</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380136</v>
+        <v>75.73571194380145</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816722</v>
+        <v>32.1884311181673</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305264</v>
+        <v>77.39012302305272</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959841</v>
+        <v>8.998871341959926</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885731</v>
+        <v>4.220688747885816</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.1666563115508</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C32" t="n">
-        <v>137.2849133148963</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D32" t="n">
         <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9069232565837</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9915850588472</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148498</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562565</v>
+        <v>14.35336722562555</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389533</v>
+        <v>9.498608495389444</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518463</v>
+        <v>37.22910417518455</v>
       </c>
       <c r="V32" t="n">
-        <v>107.9591995428695</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W32" t="n">
         <v>124.9758797594843</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8621302284236</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y32" t="n">
         <v>169.3649833521673</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>74.11054338244686</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431396</v>
+        <v>2.02733785443131</v>
       </c>
       <c r="U33" t="n">
-        <v>73.95970400236983</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V33" t="n">
-        <v>27.7283368491197</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072896</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774307</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503972</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631829</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U34" t="n">
-        <v>75.7357119438015</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816736</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305278</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959983</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885873</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888892</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922347</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328313</v>
       </c>
       <c r="E35" t="n">
-        <v>123.1677012726919</v>
+        <v>123.167701272692</v>
       </c>
       <c r="F35" t="n">
         <v>154.8880388510693</v>
       </c>
       <c r="G35" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339221</v>
       </c>
       <c r="H35" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618556</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452523023</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020786</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682273</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057619</v>
+        <v>111.471503505762</v>
       </c>
       <c r="Y35" t="n">
         <v>133.9743566295057</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>158.3241404504208</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.39337278806738</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>194.6758892939349</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113989</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039112</v>
+        <v>41.99949630039117</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.7760295888891</v>
+        <v>125.7760295888892</v>
       </c>
       <c r="C38" t="n">
-        <v>101.8942865922346</v>
+        <v>101.8942865922347</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328313</v>
       </c>
       <c r="E38" t="n">
-        <v>123.1677012726919</v>
+        <v>123.167701272692</v>
       </c>
       <c r="F38" t="n">
         <v>154.8880388510693</v>
       </c>
       <c r="G38" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339221</v>
       </c>
       <c r="H38" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452523023</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020786</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682273</v>
       </c>
       <c r="X38" t="n">
-        <v>111.4715035057619</v>
+        <v>111.471503505762</v>
       </c>
       <c r="Y38" t="n">
         <v>133.9743566295057</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>31.99880756252042</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>78.70377233720517</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113989</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039112</v>
+        <v>41.99949630039117</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17357750445973</v>
+        <v>97.17357750445979</v>
       </c>
       <c r="E41" t="n">
-        <v>130.8803299238686</v>
+        <v>130.8803299238687</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6006675022459</v>
+        <v>162.600667502246</v>
       </c>
       <c r="G41" t="n">
         <v>178.2289251850987</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.55110610369961</v>
+        <v>9.551106103699667</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28120147138446</v>
+        <v>80.28120147138452</v>
       </c>
       <c r="W41" t="n">
-        <v>97.29788168799934</v>
+        <v>97.29788168799939</v>
       </c>
       <c r="X41" t="n">
         <v>119.1841321569386</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.6869852806823</v>
+        <v>141.6869852806824</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>58.1817200683069</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05033877763469263</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>76.28690709642528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.05771387231649</v>
+        <v>48.05771387231655</v>
       </c>
       <c r="V43" t="n">
-        <v>4.510433046682351</v>
+        <v>4.510433046682408</v>
       </c>
       <c r="W43" t="n">
-        <v>49.71212495156777</v>
+        <v>49.71212495156783</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17357750445976</v>
+        <v>97.17357750445979</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8803299238686</v>
+        <v>130.8803299238687</v>
       </c>
       <c r="F44" t="n">
         <v>162.600667502246</v>
@@ -3992,7 +3992,7 @@
         <v>178.2289251850987</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3135869873618</v>
+        <v>106.3135869873622</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699638</v>
+        <v>9.551106103699667</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138449</v>
+        <v>80.28120147138452</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799936</v>
+        <v>97.29788168799939</v>
       </c>
       <c r="X44" t="n">
         <v>119.1841321569386</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>94.90566550061153</v>
       </c>
       <c r="C45" t="n">
-        <v>130.994162043121</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.141010788491219</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05033877763472105</v>
+        <v>0.05033877763474948</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10600143924407</v>
+        <v>26.1060014392441</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231652</v>
+        <v>48.05771387231655</v>
       </c>
       <c r="V46" t="n">
-        <v>4.51043304668238</v>
+        <v>4.510433046682408</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7121249515678</v>
+        <v>49.71212495156783</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.6231343447071</v>
+        <v>157.9476212775668</v>
       </c>
       <c r="C11" t="n">
-        <v>56.67246123959917</v>
+        <v>157.9476212775668</v>
       </c>
       <c r="D11" t="n">
-        <v>56.67246123959917</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="E11" t="n">
-        <v>56.67246123959917</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="F11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H11" t="n">
-        <v>56.67246123959917</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J11" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K11" t="n">
-        <v>97.66272681370882</v>
+        <v>131.3009480202407</v>
       </c>
       <c r="L11" t="n">
-        <v>146.0498560649204</v>
+        <v>179.6880772714524</v>
       </c>
       <c r="M11" t="n">
-        <v>228.7658202430836</v>
+        <v>262.4040414496156</v>
       </c>
       <c r="N11" t="n">
-        <v>350.2498749533998</v>
+        <v>339.6160003880651</v>
       </c>
       <c r="O11" t="n">
-        <v>386.2495795577949</v>
+        <v>461.1000550983813</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577949</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="T11" t="n">
-        <v>490.8446654962272</v>
+        <v>462.352117340386</v>
       </c>
       <c r="U11" t="n">
-        <v>490.8446654962272</v>
+        <v>405.8489674877825</v>
       </c>
       <c r="V11" t="n">
-        <v>490.8446654962272</v>
+        <v>281.8982943826747</v>
       </c>
       <c r="W11" t="n">
-        <v>490.8446654962272</v>
+        <v>157.9476212775668</v>
       </c>
       <c r="X11" t="n">
-        <v>366.8939923911193</v>
+        <v>157.9476212775668</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.9433192860114</v>
+        <v>157.9476212775668</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="C12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="F12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="L12" t="n">
-        <v>126.3925013652785</v>
+        <v>128.376484278129</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8765560755947</v>
+        <v>249.8605389884452</v>
       </c>
       <c r="N12" t="n">
-        <v>369.360610785911</v>
+        <v>371.3445936987613</v>
       </c>
       <c r="O12" t="n">
-        <v>490.8446654962272</v>
+        <v>406.1407351779809</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="R12" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="S12" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="T12" t="n">
-        <v>403.8615265001459</v>
+        <v>434.4709942401136</v>
       </c>
       <c r="U12" t="n">
-        <v>360.410896021411</v>
+        <v>310.5203211350058</v>
       </c>
       <c r="V12" t="n">
-        <v>236.4602229163031</v>
+        <v>186.569648029898</v>
       </c>
       <c r="W12" t="n">
-        <v>163.2349565631496</v>
+        <v>62.61897492479016</v>
       </c>
       <c r="X12" t="n">
-        <v>39.28428345804167</v>
+        <v>39.2842834580417</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.2455960401219</v>
+        <v>26.24559604012186</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2455960401219</v>
+        <v>26.24559604012186</v>
       </c>
       <c r="D13" t="n">
-        <v>74.78422648043406</v>
+        <v>26.24559604012186</v>
       </c>
       <c r="E13" t="n">
-        <v>74.78422648043406</v>
+        <v>78.25567042853484</v>
       </c>
       <c r="F13" t="n">
-        <v>74.78422648043406</v>
+        <v>78.25567042853484</v>
       </c>
       <c r="G13" t="n">
-        <v>74.78422648043406</v>
+        <v>94.34694961064287</v>
       </c>
       <c r="H13" t="n">
-        <v>74.78422648043406</v>
+        <v>94.34694961064287</v>
       </c>
       <c r="I13" t="n">
-        <v>103.9916786400693</v>
+        <v>123.5544017702781</v>
       </c>
       <c r="J13" t="n">
-        <v>177.5587845498349</v>
+        <v>197.1215076800437</v>
       </c>
       <c r="K13" t="n">
-        <v>177.5587845498349</v>
+        <v>197.1215076800437</v>
       </c>
       <c r="L13" t="n">
-        <v>299.0428392601511</v>
+        <v>197.1215076800437</v>
       </c>
       <c r="M13" t="n">
-        <v>318.6055623903596</v>
+        <v>197.1215076800437</v>
       </c>
       <c r="N13" t="n">
-        <v>318.6055623903596</v>
+        <v>197.1215076800437</v>
       </c>
       <c r="O13" t="n">
-        <v>318.6055623903596</v>
+        <v>197.1215076800437</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903596</v>
+        <v>318.6055623903599</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894746</v>
+        <v>385.3268090894748</v>
       </c>
       <c r="R13" t="n">
-        <v>376.232592429597</v>
+        <v>376.2325924295972</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347156</v>
+        <v>334.6739073347158</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688457</v>
+        <v>304.8460822688459</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135989</v>
+        <v>209.447369013599</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074774</v>
+        <v>158.0358081074775</v>
       </c>
       <c r="W13" t="n">
-        <v>60.9659725499565</v>
+        <v>60.96597254995655</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757986</v>
+        <v>32.97820939757988</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>428.5244805549229</v>
+        <v>181.0544262771221</v>
       </c>
       <c r="C14" t="n">
-        <v>428.5244805549229</v>
+        <v>181.0544262771221</v>
       </c>
       <c r="D14" t="n">
-        <v>304.573807449815</v>
+        <v>57.10375317201431</v>
       </c>
       <c r="E14" t="n">
-        <v>304.573807449815</v>
+        <v>57.10375317201431</v>
       </c>
       <c r="F14" t="n">
-        <v>304.573807449815</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G14" t="n">
-        <v>180.6231343447071</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H14" t="n">
-        <v>56.67246123959922</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J14" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K14" t="n">
-        <v>131.3009480202408</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="L14" t="n">
-        <v>252.785002730557</v>
+        <v>58.20402256113622</v>
       </c>
       <c r="M14" t="n">
-        <v>374.2690574408732</v>
+        <v>179.6880772714524</v>
       </c>
       <c r="N14" t="n">
-        <v>454.8449608918321</v>
+        <v>301.1721319817685</v>
       </c>
       <c r="O14" t="n">
-        <v>490.8446654962272</v>
+        <v>337.1718365861637</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962272</v>
+        <v>458.6558912964799</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962272</v>
+        <v>490.844665496227</v>
       </c>
       <c r="S14" t="n">
-        <v>490.8446654962272</v>
+        <v>457.448320643178</v>
       </c>
       <c r="T14" t="n">
-        <v>490.8446654962272</v>
+        <v>428.9557724873372</v>
       </c>
       <c r="U14" t="n">
-        <v>434.3415156436236</v>
+        <v>428.9557724873372</v>
       </c>
       <c r="V14" t="n">
-        <v>434.3415156436236</v>
+        <v>305.0050993822299</v>
       </c>
       <c r="W14" t="n">
-        <v>428.5244805549229</v>
+        <v>181.0544262771221</v>
       </c>
       <c r="X14" t="n">
-        <v>428.5244805549229</v>
+        <v>181.0544262771221</v>
       </c>
       <c r="Y14" t="n">
-        <v>428.5244805549229</v>
+        <v>181.0544262771221</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="C15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="F15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K15" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2520893996963</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8765560755947</v>
+        <v>288.7361441100126</v>
       </c>
       <c r="N15" t="n">
-        <v>369.360610785911</v>
+        <v>288.7361441100126</v>
       </c>
       <c r="O15" t="n">
-        <v>490.8446654962272</v>
+        <v>410.2201988203287</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="Q15" t="n">
-        <v>490.8446654962272</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="R15" t="n">
-        <v>371.0977701762685</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="S15" t="n">
-        <v>371.0977701762685</v>
+        <v>374.9167617484116</v>
       </c>
       <c r="T15" t="n">
-        <v>350.1519600415975</v>
+        <v>353.9709516137406</v>
       </c>
       <c r="U15" t="n">
-        <v>306.7013295628624</v>
+        <v>310.5203211350056</v>
       </c>
       <c r="V15" t="n">
-        <v>259.7949143830517</v>
+        <v>186.5696480298978</v>
       </c>
       <c r="W15" t="n">
-        <v>186.5696480298981</v>
+        <v>62.61897492479005</v>
       </c>
       <c r="X15" t="n">
-        <v>163.2349565631496</v>
+        <v>39.28428345804164</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924538</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E16" t="n">
-        <v>9.816893309924545</v>
+        <v>61.82696769833758</v>
       </c>
       <c r="F16" t="n">
-        <v>9.816893309924545</v>
+        <v>116.5588084905912</v>
       </c>
       <c r="G16" t="n">
-        <v>9.816893309924545</v>
+        <v>141.8192318976663</v>
       </c>
       <c r="H16" t="n">
-        <v>9.816893309924545</v>
+        <v>141.8192318976663</v>
       </c>
       <c r="I16" t="n">
-        <v>9.816893309924545</v>
+        <v>141.8192318976663</v>
       </c>
       <c r="J16" t="n">
-        <v>75.63745296972763</v>
+        <v>141.8192318976663</v>
       </c>
       <c r="K16" t="n">
-        <v>75.63745296972763</v>
+        <v>141.8192318976663</v>
       </c>
       <c r="L16" t="n">
-        <v>197.1215076800439</v>
+        <v>141.8192318976663</v>
       </c>
       <c r="M16" t="n">
-        <v>197.1215076800439</v>
+        <v>263.3032866079825</v>
       </c>
       <c r="N16" t="n">
-        <v>197.1215076800439</v>
+        <v>263.8427543791581</v>
       </c>
       <c r="O16" t="n">
-        <v>318.6055623903601</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="P16" t="n">
-        <v>318.6055623903601</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.326809089475</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295974</v>
+        <v>376.2325924295968</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347159</v>
+        <v>334.6739073347154</v>
       </c>
       <c r="T16" t="n">
-        <v>304.846082268846</v>
+        <v>304.8460822688455</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135991</v>
+        <v>209.4473690135987</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074775</v>
+        <v>158.0358081074773</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995661</v>
+        <v>60.96597254995643</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757992</v>
+        <v>32.97820939757982</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154751</v>
+        <v>317.4102657154741</v>
       </c>
       <c r="C17" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633669</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203031</v>
+        <v>270.2537288203018</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111683</v>
+        <v>218.9076992111673</v>
       </c>
       <c r="F17" t="n">
-        <v>135.5209245733696</v>
+        <v>135.5209245733686</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400229</v>
+        <v>36.34803106400227</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J17" t="n">
-        <v>86.27776328153845</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K17" t="n">
-        <v>86.27776328153845</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="L17" t="n">
-        <v>134.6648925327501</v>
+        <v>58.20402256113622</v>
       </c>
       <c r="M17" t="n">
-        <v>256.1489472430663</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N17" t="n">
-        <v>333.3609061815159</v>
+        <v>218.1319456777489</v>
       </c>
       <c r="O17" t="n">
-        <v>369.360610785911</v>
+        <v>254.1316502821441</v>
       </c>
       <c r="P17" t="n">
-        <v>369.360610785911</v>
+        <v>301.1611192690577</v>
       </c>
       <c r="Q17" t="n">
-        <v>490.8446654962272</v>
+        <v>301.1611192690577</v>
       </c>
       <c r="R17" t="n">
-        <v>490.8446654962272</v>
+        <v>301.1611192690577</v>
       </c>
       <c r="S17" t="n">
-        <v>490.8446654962272</v>
+        <v>393.5997868111755</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471774</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227591</v>
+        <v>473.184501922758</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923406</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914758</v>
+        <v>371.3909703914747</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>257.7182395201403</v>
+        <v>133.7675664150323</v>
       </c>
       <c r="C18" t="n">
-        <v>257.7182395201403</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D18" t="n">
-        <v>257.7182395201403</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E18" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="F18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K18" t="n">
-        <v>48.6924984314919</v>
+        <v>48.69249843149191</v>
       </c>
       <c r="L18" t="n">
-        <v>167.2520893996963</v>
+        <v>167.2520893996964</v>
       </c>
       <c r="M18" t="n">
         <v>288.7361441100126</v>
       </c>
       <c r="N18" t="n">
-        <v>406.1407351779812</v>
+        <v>410.2201988203287</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779812</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="R18" t="n">
-        <v>484.641624295731</v>
+        <v>484.6416242957307</v>
       </c>
       <c r="S18" t="n">
-        <v>360.6909511906231</v>
+        <v>360.6909511906229</v>
       </c>
       <c r="T18" t="n">
-        <v>360.6909511906231</v>
+        <v>360.6909511906229</v>
       </c>
       <c r="U18" t="n">
-        <v>360.6909511906231</v>
+        <v>360.6909511906229</v>
       </c>
       <c r="V18" t="n">
-        <v>257.7182395201403</v>
+        <v>236.7402780855151</v>
       </c>
       <c r="W18" t="n">
-        <v>257.7182395201403</v>
+        <v>236.7402780855151</v>
       </c>
       <c r="X18" t="n">
-        <v>257.7182395201403</v>
+        <v>236.7402780855151</v>
       </c>
       <c r="Y18" t="n">
-        <v>257.7182395201403</v>
+        <v>133.7675664150323</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154746</v>
+        <v>317.4102657154751</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633674</v>
+        <v>287.552533763368</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203023</v>
+        <v>270.2537288203032</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111677</v>
+        <v>218.9076992111684</v>
       </c>
       <c r="F20" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733697</v>
       </c>
       <c r="G20" t="n">
         <v>36.34803106400227</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J20" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K20" t="n">
-        <v>32.60718627157379</v>
+        <v>131.3009480202407</v>
       </c>
       <c r="L20" t="n">
-        <v>80.99431552278544</v>
+        <v>179.6880772714524</v>
       </c>
       <c r="M20" t="n">
-        <v>163.7102797009486</v>
+        <v>262.4040414496156</v>
       </c>
       <c r="N20" t="n">
-        <v>240.9222386393981</v>
+        <v>339.6160003880651</v>
       </c>
       <c r="O20" t="n">
-        <v>276.9219432437932</v>
+        <v>375.6157049924603</v>
       </c>
       <c r="P20" t="n">
-        <v>276.9219432437932</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="Q20" t="n">
-        <v>398.4059979541095</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="R20" t="n">
-        <v>398.4059979541095</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="S20" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471769</v>
+        <v>490.6088666471771</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227585</v>
+        <v>473.184501922759</v>
       </c>
       <c r="X20" t="n">
-        <v>433.652813492341</v>
+        <v>433.6528134923415</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914752</v>
+        <v>371.3909703914757</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>366.8939923911193</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="C21" t="n">
-        <v>242.9433192860114</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D21" t="n">
-        <v>242.9433192860114</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E21" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="F21" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G21" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K21" t="n">
-        <v>48.6924984314919</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996963</v>
+        <v>128.376484278129</v>
       </c>
       <c r="M21" t="n">
-        <v>284.656680467665</v>
+        <v>249.8605389884452</v>
       </c>
       <c r="N21" t="n">
-        <v>406.1407351779812</v>
+        <v>371.3445936987613</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779812</v>
+        <v>406.1407351779809</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.8446654962272</v>
+        <v>490.8446654962269</v>
       </c>
       <c r="R21" t="n">
-        <v>490.8446654962272</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="S21" t="n">
-        <v>490.8446654962272</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="T21" t="n">
-        <v>366.8939923911193</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="U21" t="n">
-        <v>366.8939923911193</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="V21" t="n">
-        <v>366.8939923911193</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="W21" t="n">
-        <v>366.8939923911193</v>
+        <v>366.8939923911191</v>
       </c>
       <c r="X21" t="n">
-        <v>366.8939923911193</v>
+        <v>257.7182395201402</v>
       </c>
       <c r="Y21" t="n">
-        <v>366.8939923911193</v>
+        <v>133.7675664150323</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924545</v>
+        <v>9.816893309924538</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154751</v>
+        <v>317.4102657154752</v>
       </c>
       <c r="C23" t="n">
-        <v>287.552533763368</v>
+        <v>287.5525337633681</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203028</v>
+        <v>270.2537288203029</v>
       </c>
       <c r="E23" t="n">
         <v>218.9076992111681</v>
@@ -5987,37 +5987,37 @@
         <v>9.816893309924545</v>
       </c>
       <c r="J23" t="n">
-        <v>16.48607531948418</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="K23" t="n">
-        <v>16.48607531948418</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="L23" t="n">
-        <v>64.87320457069583</v>
+        <v>58.20402256113623</v>
       </c>
       <c r="M23" t="n">
-        <v>186.3572592810121</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N23" t="n">
-        <v>263.5692182194616</v>
+        <v>218.1319456777489</v>
       </c>
       <c r="O23" t="n">
-        <v>299.5689228238567</v>
+        <v>339.6160003880652</v>
       </c>
       <c r="P23" t="n">
-        <v>299.5689228238567</v>
+        <v>461.1000550983814</v>
       </c>
       <c r="Q23" t="n">
-        <v>421.0529775341729</v>
+        <v>461.1000550983814</v>
       </c>
       <c r="R23" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="S23" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="T23" t="n">
-        <v>421.0529775341729</v>
+        <v>490.8446654962272</v>
       </c>
       <c r="U23" t="n">
         <v>490.8446654962272</v>
@@ -6032,7 +6032,7 @@
         <v>433.6528134923416</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914757</v>
+        <v>371.3909703914758</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>381.6689126252483</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="C24" t="n">
-        <v>381.6689126252483</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="D24" t="n">
-        <v>257.7182395201403</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="E24" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="F24" t="n">
-        <v>133.7675664150324</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="G24" t="n">
         <v>9.816893309924545</v>
@@ -6072,10 +6072,10 @@
         <v>9.816893309924545</v>
       </c>
       <c r="L24" t="n">
-        <v>128.376484278129</v>
+        <v>41.6885710470325</v>
       </c>
       <c r="M24" t="n">
-        <v>249.8605389884452</v>
+        <v>163.1726257573487</v>
       </c>
       <c r="N24" t="n">
         <v>284.656680467665</v>
@@ -6087,31 +6087,31 @@
         <v>490.8446654962272</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962272</v>
+        <v>484.641624295731</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962272</v>
+        <v>360.6909511906231</v>
       </c>
       <c r="S24" t="n">
-        <v>490.8446654962272</v>
+        <v>360.6909511906231</v>
       </c>
       <c r="T24" t="n">
-        <v>490.8446654962272</v>
+        <v>236.7402780855152</v>
       </c>
       <c r="U24" t="n">
-        <v>490.8446654962272</v>
+        <v>112.7896049804073</v>
       </c>
       <c r="V24" t="n">
-        <v>490.8446654962272</v>
+        <v>112.7896049804073</v>
       </c>
       <c r="W24" t="n">
-        <v>490.8446654962272</v>
+        <v>112.7896049804073</v>
       </c>
       <c r="X24" t="n">
-        <v>490.8446654962272</v>
+        <v>9.816893309924545</v>
       </c>
       <c r="Y24" t="n">
-        <v>381.6689126252483</v>
+        <v>9.816893309924545</v>
       </c>
     </row>
     <row r="25">
@@ -6203,31 +6203,31 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686419</v>
+        <v>885.8369123686415</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666776</v>
+        <v>759.7242097666772</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986438</v>
+        <v>599.5642824986433</v>
       </c>
       <c r="F26" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019454</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336797</v>
+        <v>199.3768190336792</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070287</v>
+        <v>64.0317836207023</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J26" t="n">
         <v>171.7479657778252</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613047</v>
+        <v>377.2225660613048</v>
       </c>
       <c r="L26" t="n">
         <v>636.4010735381362</v>
@@ -6251,10 +6251,10 @@
         <v>1803.710490556108</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T26" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U26" t="n">
         <v>1742.012430054896</v>
@@ -6263,7 +6263,7 @@
         <v>1632.962733546947</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.72447116363</v>
+        <v>1506.724471163629</v>
       </c>
       <c r="X26" t="n">
         <v>1358.378885074313</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.727358491452</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C27" t="n">
-        <v>272.3150842244157</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D27" t="n">
-        <v>272.3150842244157</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E27" t="n">
-        <v>186.3155207750081</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F27" t="n">
-        <v>186.3155207750081</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K27" t="n">
         <v>74.94981493268952</v>
@@ -6321,34 +6321,34 @@
         <v>716.0369642505273</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687733</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682772</v>
       </c>
       <c r="R27" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682772</v>
       </c>
       <c r="S27" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682772</v>
       </c>
       <c r="T27" t="n">
-        <v>798.6930785541962</v>
+        <v>577.4187403170509</v>
       </c>
       <c r="U27" t="n">
-        <v>774.1404421955551</v>
+        <v>552.8661039584099</v>
       </c>
       <c r="V27" t="n">
-        <v>746.1320211358384</v>
+        <v>309.786385862044</v>
       </c>
       <c r="W27" t="n">
-        <v>476.7334518661297</v>
+        <v>255.4591136289844</v>
       </c>
       <c r="X27" t="n">
-        <v>472.2967545194752</v>
+        <v>251.0224162823299</v>
       </c>
       <c r="Y27" t="n">
-        <v>461.727358491452</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112216</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112216</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80358600786144</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="J28" t="n">
-        <v>83.80358600786144</v>
+        <v>79.85655725530131</v>
       </c>
       <c r="K28" t="n">
-        <v>83.80358600786144</v>
+        <v>224.8385382931878</v>
       </c>
       <c r="L28" t="n">
-        <v>83.80358600786144</v>
+        <v>224.8385382931878</v>
       </c>
       <c r="M28" t="n">
-        <v>83.80358600786144</v>
+        <v>224.8385382931878</v>
       </c>
       <c r="N28" t="n">
-        <v>116.7335391553833</v>
+        <v>224.8385382931878</v>
       </c>
       <c r="O28" t="n">
-        <v>116.7335391553833</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="P28" t="n">
         <v>270.2039500901372</v>
@@ -6421,13 +6421,13 @@
         <v>127.5991422483932</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096629</v>
+        <v>49.42730081096628</v>
       </c>
       <c r="X28" t="n">
         <v>40.33753177868356</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686424</v>
+        <v>885.8369123686419</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666782</v>
+        <v>759.7242097666776</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986444</v>
+        <v>599.5642824986437</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3636102019466</v>
+        <v>407.3636102019458</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336804</v>
+        <v>199.3768190336796</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070366</v>
+        <v>64.0317836207029</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J29" t="n">
-        <v>171.747965777825</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613046</v>
+        <v>377.222566061305</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381362</v>
+        <v>636.4010735381364</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419194</v>
       </c>
       <c r="N29" t="n">
         <v>1217.911753105989</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.702835936003</v>
+        <v>1464.702835936004</v>
       </c>
       <c r="P29" t="n">
         <v>1662.071556543468</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.6560614548029</v>
+        <v>209.6374136897077</v>
       </c>
       <c r="C30" t="n">
-        <v>246.6560614548029</v>
+        <v>209.6374136897077</v>
       </c>
       <c r="D30" t="n">
-        <v>246.6560614548029</v>
+        <v>209.6374136897077</v>
       </c>
       <c r="E30" t="n">
-        <v>246.6560614548029</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F30" t="n">
-        <v>86.228345172047</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268953</v>
       </c>
       <c r="L30" t="n">
         <v>193.509405900894</v>
@@ -6558,34 +6558,34 @@
         <v>716.0369642505273</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687733</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.7408945687732</v>
+        <v>794.5378533682772</v>
       </c>
       <c r="R30" t="n">
-        <v>800.7408945687732</v>
+        <v>727.1868026939644</v>
       </c>
       <c r="S30" t="n">
-        <v>800.7408945687732</v>
+        <v>727.1868026939644</v>
       </c>
       <c r="T30" t="n">
-        <v>798.6930785541962</v>
+        <v>725.1389866793872</v>
       </c>
       <c r="U30" t="n">
-        <v>774.1404421955551</v>
+        <v>700.5863503207461</v>
       </c>
       <c r="V30" t="n">
-        <v>746.1320211358384</v>
+        <v>672.5779292610292</v>
       </c>
       <c r="W30" t="n">
-        <v>476.7334518661297</v>
+        <v>618.2506570279696</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2254574828261</v>
+        <v>613.8139596813151</v>
       </c>
       <c r="Y30" t="n">
-        <v>246.6560614548029</v>
+        <v>388.1732666166428</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="L31" t="n">
-        <v>103.1347642885384</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="M31" t="n">
-        <v>103.1347642885384</v>
+        <v>222.6433429629303</v>
       </c>
       <c r="N31" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="O31" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="P31" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2039500901368</v>
+        <v>260.5952678013794</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153494</v>
+        <v>247.5432591153499</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695735</v>
+        <v>236.6134281695739</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344206</v>
+        <v>160.1127090344209</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483931</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096617</v>
+        <v>49.42730081096635</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868351</v>
+        <v>40.3375317786836</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>885.8369123686422</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666776</v>
+        <v>759.7242097666779</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986437</v>
+        <v>599.564282498644</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019458</v>
+        <v>407.3636102019462</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336799</v>
+        <v>199.37681903368</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070295</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7479657778251</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613054</v>
+        <v>377.2225660613048</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381368</v>
+        <v>636.4010735381363</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419197</v>
+        <v>929.9084159419193</v>
       </c>
       <c r="N32" t="n">
         <v>1217.911753105989</v>
@@ -6725,10 +6725,10 @@
         <v>1803.710490556108</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T32" t="n">
-        <v>1779.617585787406</v>
+        <v>1779.617585787405</v>
       </c>
       <c r="U32" t="n">
         <v>1742.012430054896</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.5019260938781</v>
+        <v>110.9333445408665</v>
       </c>
       <c r="C33" t="n">
-        <v>196.5019260938781</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D33" t="n">
-        <v>196.5019260938781</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5019260938781</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="K33" t="n">
-        <v>74.94981493268952</v>
+        <v>74.94981493268953</v>
       </c>
       <c r="L33" t="n">
         <v>193.509405900894</v>
@@ -6795,34 +6795,34 @@
         <v>716.0369642505273</v>
       </c>
       <c r="P33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687733</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687732</v>
+        <v>800.7408945687733</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687732</v>
+        <v>665.0181776548369</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7408945687732</v>
+        <v>665.0181776548369</v>
       </c>
       <c r="T33" t="n">
-        <v>798.6930785541961</v>
+        <v>662.9703616402599</v>
       </c>
       <c r="U33" t="n">
-        <v>723.9863068346306</v>
+        <v>638.4177252816188</v>
       </c>
       <c r="V33" t="n">
-        <v>695.9778857749137</v>
+        <v>395.3380071852529</v>
       </c>
       <c r="W33" t="n">
-        <v>426.579316505205</v>
+        <v>341.0107349521933</v>
       </c>
       <c r="X33" t="n">
-        <v>207.0713221219014</v>
+        <v>121.5027405688897</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.5019260938781</v>
+        <v>110.9333445408665</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="D34" t="n">
-        <v>95.84719891455444</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="E34" t="n">
-        <v>95.84719891455444</v>
+        <v>36.07420981112217</v>
       </c>
       <c r="F34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="G34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="H34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="I34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="J34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="K34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="L34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="M34" t="n">
-        <v>95.84719891455444</v>
+        <v>109.3279746404798</v>
       </c>
       <c r="N34" t="n">
-        <v>95.84719891455444</v>
+        <v>116.7335391553833</v>
       </c>
       <c r="O34" t="n">
-        <v>270.2039500901378</v>
+        <v>116.7335391553833</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901378</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901378</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901378</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153503</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695742</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344212</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483935</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096646</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868365</v>
+        <v>40.33753177868357</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112216</v>
+        <v>36.07420981112217</v>
       </c>
     </row>
     <row r="35">
@@ -6914,55 +6914,55 @@
         <v>772.2454280561335</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457954</v>
+        <v>669.3219062457952</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444994</v>
+        <v>578.9573114444991</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771338</v>
+        <v>454.5454919771334</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811042</v>
+        <v>298.0929274811037</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135062</v>
+        <v>125.8542441135063</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586254</v>
+        <v>33.89281886586249</v>
       </c>
       <c r="J35" t="n">
-        <v>33.89281886586254</v>
+        <v>33.89281886586249</v>
       </c>
       <c r="K35" t="n">
-        <v>274.4041396047771</v>
+        <v>274.404139604777</v>
       </c>
       <c r="L35" t="n">
-        <v>413.5696250532531</v>
+        <v>568.6193675370432</v>
       </c>
       <c r="M35" t="n">
-        <v>496.2855892314163</v>
+        <v>695.6537029654069</v>
       </c>
       <c r="N35" t="n">
-        <v>819.3256468509205</v>
+        <v>772.8656619038563</v>
       </c>
       <c r="O35" t="n">
-        <v>1101.15345013637</v>
+        <v>1054.693465189306</v>
       </c>
       <c r="P35" t="n">
-        <v>1101.15345013637</v>
+        <v>1054.693465189306</v>
       </c>
       <c r="Q35" t="n">
-        <v>1259.307180567342</v>
+        <v>1212.847195620277</v>
       </c>
       <c r="R35" t="n">
-        <v>1312.865825059881</v>
+        <v>1266.405840112816</v>
       </c>
       <c r="S35" t="n">
-        <v>1312.865825059881</v>
+        <v>1287.232727014882</v>
       </c>
       <c r="T35" t="n">
         <v>1312.865825059881</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>350.061831343669</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="C36" t="n">
-        <v>350.061831343669</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="D36" t="n">
-        <v>350.061831343669</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="E36" t="n">
-        <v>176.4986274650835</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="F36" t="n">
-        <v>176.4986274650835</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="G36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="H36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="I36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276497</v>
+        <v>65.13292162276498</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
@@ -7035,31 +7035,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q36" t="n">
-        <v>790.9240012588486</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="R36" t="n">
-        <v>790.9240012588486</v>
+        <v>648.9982431444161</v>
       </c>
       <c r="S36" t="n">
-        <v>790.9240012588486</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="T36" t="n">
-        <v>790.9240012588486</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="U36" t="n">
-        <v>790.9240012588486</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="V36" t="n">
-        <v>790.9240012588486</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="W36" t="n">
-        <v>772.3448368264574</v>
+        <v>186.1806906935419</v>
       </c>
       <c r="X36" t="n">
-        <v>575.7025244083413</v>
+        <v>186.1806906935419</v>
       </c>
       <c r="Y36" t="n">
-        <v>350.061831343669</v>
+        <v>186.1806906935419</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="C37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="D37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="E37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="F37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="G37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="H37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="I37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="J37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="K37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="L37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="M37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="N37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="O37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="P37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="R37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="S37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="T37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724411</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561333</v>
       </c>
       <c r="C38" t="n">
-        <v>669.321906245795</v>
+        <v>669.3219062457952</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444989</v>
+        <v>578.9573114444991</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771333</v>
+        <v>454.5454919771334</v>
       </c>
       <c r="F38" t="n">
         <v>298.0929274811037</v>
       </c>
       <c r="G38" t="n">
-        <v>125.8542441135062</v>
+        <v>125.8542441135063</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="I38" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9677929233356</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="K38" t="n">
-        <v>196.9677929233356</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="L38" t="n">
-        <v>491.183020855602</v>
+        <v>320.472544433464</v>
       </c>
       <c r="M38" t="n">
-        <v>742.1136879124711</v>
+        <v>645.4068361357845</v>
       </c>
       <c r="N38" t="n">
-        <v>819.3256468509205</v>
+        <v>786.288319522012</v>
       </c>
       <c r="O38" t="n">
-        <v>1101.15345013637</v>
+        <v>822.2880241264071</v>
       </c>
       <c r="P38" t="n">
-        <v>1101.15345013637</v>
+        <v>1054.693465189306</v>
       </c>
       <c r="Q38" t="n">
-        <v>1259.307180567342</v>
+        <v>1212.847195620277</v>
       </c>
       <c r="R38" t="n">
-        <v>1312.865825059881</v>
+        <v>1266.405840112816</v>
       </c>
       <c r="S38" t="n">
-        <v>1312.865825059881</v>
+        <v>1287.232727014882</v>
       </c>
       <c r="T38" t="n">
         <v>1312.865825059881</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.00877712804</v>
       </c>
       <c r="V38" t="n">
         <v>1237.707188420759</v>
@@ -7217,7 +7217,7 @@
         <v>1034.619555549461</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903645</v>
+        <v>899.2919225903648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>350.061831343669</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="C39" t="n">
-        <v>350.061831343669</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="D39" t="n">
-        <v>350.061831343669</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="E39" t="n">
-        <v>176.4986274650835</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="F39" t="n">
-        <v>176.4986274650835</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="G39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="H39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276497</v>
+        <v>65.13292162276498</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
@@ -7272,31 +7272,31 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q39" t="n">
-        <v>790.9240012588486</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="R39" t="n">
-        <v>655.2012843449122</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="S39" t="n">
-        <v>655.2012843449122</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="T39" t="n">
-        <v>655.2012843449122</v>
+        <v>567.6018470071263</v>
       </c>
       <c r="U39" t="n">
-        <v>655.2012843449122</v>
+        <v>327.977913611836</v>
       </c>
       <c r="V39" t="n">
-        <v>655.2012843449122</v>
+        <v>327.977913611836</v>
       </c>
       <c r="W39" t="n">
-        <v>575.7025244083413</v>
+        <v>58.57934434212734</v>
       </c>
       <c r="X39" t="n">
-        <v>575.7025244083413</v>
+        <v>58.57934434212734</v>
       </c>
       <c r="Y39" t="n">
-        <v>350.061831343669</v>
+        <v>58.57934434212734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="C40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="D40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="E40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="F40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="G40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="H40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="I40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="J40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="K40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="L40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="M40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="N40" t="n">
-        <v>51.96128149720229</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="O40" t="n">
-        <v>51.96128149720229</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="P40" t="n">
-        <v>51.96128149720229</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.96128149720229</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="R40" t="n">
-        <v>96.60668424139527</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="S40" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="T40" t="n">
-        <v>109.433661472441</v>
+        <v>106.2634878239918</v>
       </c>
       <c r="U40" t="n">
-        <v>68.68105013795632</v>
+        <v>65.51087648950708</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795639</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119763</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.96128149720229</v>
+        <v>26.25731650119763</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.896517878027</v>
+        <v>820.8965178780268</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766014</v>
+        <v>710.1824620766012</v>
       </c>
       <c r="D41" t="n">
-        <v>612.027333284218</v>
+        <v>612.0273332842175</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257648</v>
+        <v>479.8249798257643</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5818813386479</v>
+        <v>315.581881338647</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5526639799621</v>
+        <v>135.5526639799622</v>
       </c>
       <c r="H41" t="n">
         <v>28.165202376566</v>
@@ -7409,34 +7409,34 @@
         <v>28.165202376566</v>
       </c>
       <c r="J41" t="n">
-        <v>28.165202376566</v>
+        <v>191.2401764340391</v>
       </c>
       <c r="K41" t="n">
-        <v>28.165202376566</v>
+        <v>424.1159948082886</v>
       </c>
       <c r="L41" t="n">
-        <v>314.7359895820979</v>
+        <v>710.6957203758901</v>
       </c>
       <c r="M41" t="n">
-        <v>397.4519537602611</v>
+        <v>1031.604280870443</v>
       </c>
       <c r="N41" t="n">
-        <v>712.8565090151004</v>
+        <v>1108.816239808893</v>
       </c>
       <c r="O41" t="n">
-        <v>987.0488099358854</v>
+        <v>1165.492584449732</v>
       </c>
       <c r="P41" t="n">
-        <v>1211.81874863412</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="Q41" t="n">
-        <v>1362.336976700426</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="R41" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="S41" t="n">
-        <v>1408.2601188283</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
@@ -7454,7 +7454,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033459</v>
+        <v>955.7335464033458</v>
       </c>
     </row>
     <row r="42">
@@ -7515,25 +7515,25 @@
         <v>792.8318871342171</v>
       </c>
       <c r="S42" t="n">
-        <v>792.8318871342171</v>
+        <v>599.4129039530517</v>
       </c>
       <c r="T42" t="n">
-        <v>792.8318871342171</v>
+        <v>540.6434897426407</v>
       </c>
       <c r="U42" t="n">
-        <v>553.2079537389269</v>
+        <v>540.6434897426407</v>
       </c>
       <c r="V42" t="n">
-        <v>553.1571064887909</v>
+        <v>297.5637716462747</v>
       </c>
       <c r="W42" t="n">
-        <v>283.7585372190822</v>
+        <v>28.165202376566</v>
       </c>
       <c r="X42" t="n">
-        <v>283.7585372190822</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.7010553035011</v>
+        <v>28.165202376566</v>
       </c>
     </row>
     <row r="43">
@@ -7579,31 +7579,31 @@
         <v>28.165202376566</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4786083064313</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="U43" t="n">
-        <v>82.93546298085906</v>
+        <v>82.93546298085917</v>
       </c>
       <c r="V43" t="n">
-        <v>78.37947000441224</v>
+        <v>78.3794700044123</v>
       </c>
       <c r="W43" t="n">
         <v>28.165202376566</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.8965178780268</v>
+        <v>820.8965178780267</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766012</v>
+        <v>710.1824620766013</v>
       </c>
       <c r="D44" t="n">
         <v>612.0273332842175</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257643</v>
+        <v>479.8249798257642</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386472</v>
+        <v>315.581881338647</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5526639799618</v>
+        <v>135.5526639799622</v>
       </c>
       <c r="H44" t="n">
         <v>28.165202376566</v>
@@ -7649,28 +7649,28 @@
         <v>191.2401764340391</v>
       </c>
       <c r="K44" t="n">
-        <v>424.1159948082887</v>
+        <v>191.2401764340391</v>
       </c>
       <c r="L44" t="n">
-        <v>580.8541323460273</v>
+        <v>477.8199020016406</v>
       </c>
       <c r="M44" t="n">
-        <v>663.5700965241905</v>
+        <v>754.9737979252222</v>
       </c>
       <c r="N44" t="n">
-        <v>740.78205546264</v>
+        <v>1070.378353180062</v>
       </c>
       <c r="O44" t="n">
-        <v>1014.974356383425</v>
+        <v>1106.378057784457</v>
       </c>
       <c r="P44" t="n">
-        <v>1239.744295081659</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="Q44" t="n">
-        <v>1390.262523147966</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.262523147966</v>
+        <v>1377.071138610565</v>
       </c>
       <c r="S44" t="n">
         <v>1390.262523147966</v>
@@ -7691,7 +7691,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033458</v>
+        <v>955.7335464033457</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>321.2626540126262</v>
+        <v>28.165202376566</v>
       </c>
       <c r="C45" t="n">
-        <v>188.9453186155343</v>
+        <v>28.165202376566</v>
       </c>
       <c r="D45" t="n">
         <v>28.165202376566</v>
@@ -7728,49 +7728,49 @@
         <v>28.165202376566</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813336</v>
+        <v>67.04080749813339</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6003984663378</v>
+        <v>185.6003984663379</v>
       </c>
       <c r="M45" t="n">
-        <v>368.7085132490524</v>
+        <v>368.7085132490525</v>
       </c>
       <c r="N45" t="n">
-        <v>575.0828445417447</v>
+        <v>575.082844541745</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159711</v>
+        <v>708.1279568159714</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342171</v>
+        <v>792.8318871342175</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8318871342171</v>
+        <v>786.6288459337213</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8318871342171</v>
+        <v>786.6288459337213</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8318871342171</v>
+        <v>593.2098627525559</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8318871342171</v>
+        <v>376.0907497013296</v>
       </c>
       <c r="U45" t="n">
-        <v>792.8318871342171</v>
+        <v>376.0907497013296</v>
       </c>
       <c r="V45" t="n">
-        <v>792.7810398840811</v>
+        <v>376.0399024511935</v>
       </c>
       <c r="W45" t="n">
-        <v>766.4113414606022</v>
+        <v>349.6702040277146</v>
       </c>
       <c r="X45" t="n">
-        <v>546.9033470772986</v>
+        <v>349.6702040277146</v>
       </c>
       <c r="Y45" t="n">
-        <v>321.2626540126262</v>
+        <v>124.0295109630423</v>
       </c>
     </row>
     <row r="46">
@@ -7786,61 +7786,61 @@
         <v>28.165202376566</v>
       </c>
       <c r="D46" t="n">
-        <v>122.6269749447522</v>
+        <v>28.165202376566</v>
       </c>
       <c r="E46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="F46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="G46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="H46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="I46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064314</v>
+        <v>28.165202376566</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085911</v>
+        <v>82.93546298085917</v>
       </c>
       <c r="V46" t="n">
-        <v>78.37947000441227</v>
+        <v>78.3794700044123</v>
       </c>
       <c r="W46" t="n">
         <v>28.165202376566</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1051855825678</v>
+        <v>132.1051855825677</v>
       </c>
       <c r="L12" t="n">
-        <v>238.3005206123482</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>239.5303559843451</v>
+        <v>239.530355984345</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510105</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681793</v>
+        <v>155.9813982498997</v>
       </c>
       <c r="P12" t="n">
-        <v>120.8043485046934</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9012,16 +9012,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>198.2580448384684</v>
+        <v>239.530355984345</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510105</v>
+        <v>102.1549380769536</v>
       </c>
       <c r="O15" t="n">
-        <v>243.5449469681792</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P15" t="n">
-        <v>120.8043485046934</v>
+        <v>202.2432037328734</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9252,13 +9252,13 @@
         <v>239.530355984345</v>
       </c>
       <c r="N18" t="n">
-        <v>220.7454341052048</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O18" t="n">
-        <v>120.8337805941224</v>
+        <v>202.2726358223024</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046934</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>132.1051855825677</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>235.4096856385394</v>
+        <v>239.530355984345</v>
       </c>
       <c r="N21" t="n">
-        <v>224.8661044510105</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O21" t="n">
-        <v>120.8337805941224</v>
+        <v>155.9813982498997</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,16 +9717,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.1051855825678</v>
+        <v>132.1051855825677</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3045437566416</v>
+        <v>152.7409950383622</v>
       </c>
       <c r="M24" t="n">
         <v>239.530355984345</v>
       </c>
       <c r="N24" t="n">
-        <v>137.3025557327312</v>
+        <v>224.8661044510104</v>
       </c>
       <c r="O24" t="n">
         <v>243.5449469681792</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.1786873985524</v>
+        <v>179.8756704904437</v>
       </c>
       <c r="C11" t="n">
-        <v>33.28276111973236</v>
+        <v>155.9939274937892</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>119.6223354409285</v>
       </c>
       <c r="E11" t="n">
         <v>177.2673421742465</v>
       </c>
       <c r="F11" t="n">
-        <v>208.9876797526238</v>
+        <v>86.27651337856712</v>
       </c>
       <c r="G11" t="n">
         <v>224.6159374354766</v>
@@ -23276,7 +23276,7 @@
         <v>152.7005992377401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451853</v>
+        <v>33.06238140451855</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428242</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407752</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>126.6682137217624</v>
+        <v>3.957047347705654</v>
       </c>
       <c r="W11" t="n">
-        <v>143.6848939383772</v>
+        <v>20.97372756432051</v>
       </c>
       <c r="X11" t="n">
-        <v>42.85997803325967</v>
+        <v>165.5711444073165</v>
       </c>
       <c r="Y11" t="n">
-        <v>65.36283115700343</v>
+        <v>188.0739975310603</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.8756704904437</v>
+        <v>179.8756704904436</v>
       </c>
       <c r="C14" t="n">
-        <v>155.9939274937892</v>
+        <v>155.9939274937891</v>
       </c>
       <c r="D14" t="n">
-        <v>20.84942338078088</v>
+        <v>20.84942338078086</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742466</v>
+        <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526239</v>
+        <v>162.1736884891549</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9047710614198</v>
+        <v>224.6159374354765</v>
       </c>
       <c r="H14" t="n">
-        <v>29.98943286368332</v>
+        <v>152.70059923774</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.38701225037783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428248</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.93811835407747</v>
       </c>
       <c r="V14" t="n">
-        <v>126.6682137217624</v>
+        <v>3.957047347705597</v>
       </c>
       <c r="W14" t="n">
-        <v>137.9260292005635</v>
+        <v>20.97372756432046</v>
       </c>
       <c r="X14" t="n">
-        <v>165.5711444073165</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310603</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>826209.3202096825</v>
+        <v>826209.3202096823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>826209.3202096823</v>
+        <v>826209.3202096825</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="D2" t="n">
         <v>661448.9963823447</v>
       </c>
       <c r="E2" t="n">
-        <v>569992.5667653591</v>
+        <v>569992.5667653587</v>
       </c>
       <c r="F2" t="n">
-        <v>569992.5667653587</v>
+        <v>569992.5667653589</v>
       </c>
       <c r="G2" t="n">
-        <v>662788.9116439013</v>
+        <v>662788.9116439015</v>
       </c>
       <c r="H2" t="n">
-        <v>662788.9116439014</v>
+        <v>662788.9116439011</v>
       </c>
       <c r="I2" t="n">
-        <v>662788.9116439013</v>
+        <v>662788.9116439016</v>
       </c>
       <c r="J2" t="n">
-        <v>662788.9116439013</v>
+        <v>662788.9116439015</v>
       </c>
       <c r="K2" t="n">
-        <v>662788.9116439023</v>
+        <v>662788.9116439011</v>
       </c>
       <c r="L2" t="n">
-        <v>662788.911643901</v>
+        <v>662788.9116439015</v>
       </c>
       <c r="M2" t="n">
         <v>662788.9116439014</v>
       </c>
       <c r="N2" t="n">
-        <v>662788.9116439011</v>
+        <v>662788.9116439014</v>
       </c>
       <c r="O2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.911643902</v>
       </c>
       <c r="P2" t="n">
-        <v>662788.9116439017</v>
+        <v>662788.9116439018</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>275420.994764991</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>101147.8182889625</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889624</v>
+        <v>101147.8182889625</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812933</v>
+        <v>28312.50137812922</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053827</v>
+        <v>68757.7290905382</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>446099.6448485553</v>
       </c>
       <c r="E4" t="n">
+        <v>338683.1874182846</v>
+      </c>
+      <c r="F4" t="n">
         <v>338683.1874182847</v>
-      </c>
-      <c r="F4" t="n">
-        <v>338683.1874182846</v>
       </c>
       <c r="G4" t="n">
         <v>409186.2663395518</v>
@@ -26439,13 +26439,13 @@
         <v>409186.2663395518</v>
       </c>
       <c r="J4" t="n">
+        <v>407456.4004199021</v>
+      </c>
+      <c r="K4" t="n">
         <v>407456.4004199019</v>
       </c>
-      <c r="K4" t="n">
-        <v>407456.4004199021</v>
-      </c>
       <c r="L4" t="n">
-        <v>407456.4004199019</v>
+        <v>407456.400419902</v>
       </c>
       <c r="M4" t="n">
         <v>406912.0322437917</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>26051.38465538857</v>
+      </c>
+      <c r="F5" t="n">
         <v>26051.38465538858</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26051.38465538857</v>
       </c>
       <c r="G5" t="n">
         <v>36680.62957505706</v>
@@ -26494,10 +26494,10 @@
         <v>47579.79330930412</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930413</v>
+        <v>47579.79330930412</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930411</v>
+        <v>47579.79330930412</v>
       </c>
       <c r="M5" t="n">
         <v>43094.2089917089</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181721.7515337893</v>
+        <v>181717.2851495842</v>
       </c>
       <c r="C6" t="n">
-        <v>181721.7515337894</v>
+        <v>181717.2851495843</v>
       </c>
       <c r="D6" t="n">
-        <v>181721.7515337894</v>
+        <v>181717.2851495842</v>
       </c>
       <c r="E6" t="n">
-        <v>-70163.00007330514</v>
+        <v>-70472.32122290067</v>
       </c>
       <c r="F6" t="n">
-        <v>205257.9946916855</v>
+        <v>204948.6735420905</v>
       </c>
       <c r="G6" t="n">
-        <v>115774.1974403299</v>
+        <v>115774.1974403302</v>
       </c>
       <c r="H6" t="n">
-        <v>216922.0157292925</v>
+        <v>216922.0157292923</v>
       </c>
       <c r="I6" t="n">
-        <v>216922.0157292924</v>
+        <v>216922.0157292928</v>
       </c>
       <c r="J6" t="n">
-        <v>52688.20246763974</v>
+        <v>52688.20246763986</v>
       </c>
       <c r="K6" t="n">
-        <v>207752.7179146961</v>
+        <v>207752.7179146951</v>
       </c>
       <c r="L6" t="n">
-        <v>106604.8996257326</v>
+        <v>106604.8996257329</v>
       </c>
       <c r="M6" t="n">
-        <v>184470.1690302714</v>
+        <v>184470.1690302715</v>
       </c>
       <c r="N6" t="n">
-        <v>212782.6704084005</v>
+        <v>212782.6704084007</v>
       </c>
       <c r="O6" t="n">
-        <v>143120.4124713085</v>
+        <v>143120.4124713088</v>
       </c>
       <c r="P6" t="n">
-        <v>211878.1415618468</v>
+        <v>211878.1415618469</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>194.2115698873896</v>
+      </c>
+      <c r="F2" t="n">
         <v>194.2115698873897</v>
-      </c>
-      <c r="F2" t="n">
-        <v>194.2115698873896</v>
       </c>
       <c r="G2" t="n">
         <v>320.6463427485928</v>
@@ -26710,10 +26710,10 @@
         <v>212.9205840662826</v>
       </c>
       <c r="K2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M2" t="n">
         <v>248.3112107889442</v>
@@ -26722,7 +26722,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="O2" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="P2" t="n">
         <v>240.5985821377675</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="F3" t="n">
         <v>103.8244619716957</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="I4" t="n">
         <v>122.7111663740568</v>
       </c>
       <c r="J4" t="n">
-        <v>450.927622639027</v>
+        <v>450.9276226390269</v>
       </c>
       <c r="K4" t="n">
         <v>450.927622639027</v>
@@ -26820,10 +26820,10 @@
         <v>450.927622639027</v>
       </c>
       <c r="M4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649703</v>
       </c>
       <c r="N4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649703</v>
       </c>
       <c r="O4" t="n">
         <v>352.065029707075</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612032</v>
+        <v>126.4347728612031</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507953</v>
+        <v>86.4858112050795</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.434772861203</v>
+        <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266166</v>
+        <v>35.39062672266152</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390287</v>
+        <v>78.77318255390281</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210485</v>
+        <v>23.84857344210474</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612032</v>
+        <v>126.4347728612031</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507953</v>
+        <v>86.4858112050795</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="E11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="G11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K11" t="n">
-        <v>94.10364792517626</v>
+        <v>128.0816491438953</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>44.71928865845129</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>86.3478283898192</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833908</v>
+        <v>43.60330102626391</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.2115698873897</v>
+        <v>88.55996792937717</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491254</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R12" t="n">
         <v>134.3654897447971</v>
@@ -28220,22 +28220,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T12" t="n">
-        <v>128.8346143145935</v>
+        <v>159.1379873771617</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>114.5165276872806</v>
       </c>
       <c r="V12" t="n">
-        <v>117.9377545413454</v>
+        <v>117.9377545413455</v>
       </c>
       <c r="W12" t="n">
-        <v>194.2115698873897</v>
+        <v>143.9934172029548</v>
       </c>
       <c r="X12" t="n">
-        <v>94.6017480654138</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>194.2115698873897</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959906883239</v>
+        <v>184.9498080439885</v>
       </c>
       <c r="H13" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="J13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L13" t="n">
-        <v>154.1516967876647</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M13" t="n">
-        <v>44.22724061012136</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78803834926583</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O13" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89996696047068</v>
+        <v>180.6111333345274</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="R13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="U13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="V13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87638612011797</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K14" t="n">
-        <v>128.0816491438954</v>
+        <v>5.37048276983856</v>
       </c>
       <c r="L14" t="n">
-        <v>73.83527824151977</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.15968740621523</v>
+        <v>39.15968740621513</v>
       </c>
       <c r="N14" t="n">
-        <v>3.397923750009483</v>
+        <v>44.71928865845115</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.55824001833905</v>
+        <v>136.2694063923958</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55996792937718</v>
+        <v>121.073881262455</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54.03932802360893</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.81606337803798</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4847933493538</v>
+        <v>82.85717942750792</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2115698873896</v>
+        <v>117.9377545413455</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873896</v>
+        <v>143.9934172029548</v>
       </c>
       <c r="X15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="16">
@@ -28491,13 +28491,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6959906883239</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H16" t="n">
         <v>165.7818614221724</v>
@@ -28506,52 +28506,52 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J16" t="n">
-        <v>186.3867756955083</v>
+        <v>119.9013618977274</v>
       </c>
       <c r="K16" t="n">
         <v>66.47413857346797</v>
       </c>
       <c r="L16" t="n">
-        <v>154.1516967876647</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46691421597134</v>
+        <v>147.1780805900281</v>
       </c>
       <c r="N16" t="n">
-        <v>15.78803834926581</v>
+        <v>16.33295528984724</v>
       </c>
       <c r="O16" t="n">
-        <v>159.5138199599521</v>
+        <v>159.513819959952</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.2115698873896</v>
+        <v>126.8163712014149</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="17">
@@ -28585,16 +28585,16 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J17" t="n">
-        <v>153.1095881116472</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838588</v>
+        <v>5.37048276983856</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>39.15968740621523</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833905</v>
+        <v>61.06275414653461</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.2711343034339</v>
+        <v>88.55996792937717</v>
       </c>
       <c r="R17" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4191925616721</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="U17" t="n">
         <v>250.1496882414672</v>
@@ -28643,16 +28643,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>64.80698515030919</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>49.11640546574287</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>36.11227274587154</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7388978542471</v>
@@ -28691,7 +28691,7 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S18" t="n">
-        <v>68.77362697529702</v>
+        <v>68.77362697529709</v>
       </c>
       <c r="T18" t="n">
         <v>214.947921920714</v>
@@ -28700,7 +28700,7 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>138.7059363616243</v>
+        <v>117.9377545413455</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>121.4413015802477</v>
       </c>
     </row>
     <row r="19">
@@ -28749,19 +28749,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926581</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O19" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8163712014149</v>
@@ -28822,10 +28822,10 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011797</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K20" t="n">
-        <v>28.39098071089843</v>
+        <v>128.0816491438953</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,16 +28840,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833905</v>
+        <v>129.9511294160831</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.2711343034339</v>
+        <v>88.55996792937717</v>
       </c>
       <c r="R20" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873896</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
         <v>222.4191925616721</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>54.039328023609</v>
       </c>
       <c r="C21" t="n">
-        <v>64.80698515030912</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>63.74357649753051</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,7 +28895,7 @@
         <v>148.7388978542471</v>
       </c>
       <c r="H21" t="n">
-        <v>2.969244272786429</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
         <v>107.1669324054735</v>
@@ -28922,16 +28922,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074033</v>
       </c>
       <c r="S21" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T21" t="n">
-        <v>92.23675554665714</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276940613373</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>109.2289190972014</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599689</v>
       </c>
     </row>
     <row r="22">
@@ -28986,19 +28986,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926581</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O22" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8163712014149</v>
@@ -29059,31 +29059,31 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>82.61293360452164</v>
+        <v>75.87638612011796</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838588</v>
+        <v>5.37048276983856</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>39.15968740621523</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>86.34782838981927</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833905</v>
+        <v>136.2694063923958</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.2711343034339</v>
+        <v>88.55996792937717</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2115698873897</v>
+        <v>224.2566308953147</v>
       </c>
       <c r="S23" t="n">
         <v>227.2739512919082</v>
@@ -29092,7 +29092,7 @@
         <v>222.4191925616721</v>
       </c>
       <c r="U23" t="n">
-        <v>320.6463427485928</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V23" t="n">
         <v>320.6463427485928</v>
@@ -29120,16 +29120,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>36.46114870252174</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>49.11640546574287</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>26.02773148019025</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H24" t="n">
         <v>125.6804106468432</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074026</v>
       </c>
       <c r="S24" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>92.23675554665715</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872805</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,10 +29180,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>115.3699298856927</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.3002907917565</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29223,19 +29223,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926581</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O25" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8163712014149</v>
@@ -29354,19 +29354,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>86.68800402488611</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H27" t="n">
         <v>125.6804106468432</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3654897447971</v>
@@ -29405,22 +29405,22 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.9205840662826</v>
+        <v>10.58556172752995</v>
       </c>
     </row>
     <row r="28">
@@ -29445,34 +29445,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H28" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I28" t="n">
-        <v>212.9205840662826</v>
+        <v>164.7090929584652</v>
       </c>
       <c r="J28" t="n">
         <v>119.9013618977274</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47413857346797</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N28" t="n">
-        <v>49.05061728615662</v>
+        <v>15.7880383492658</v>
       </c>
       <c r="O28" t="n">
-        <v>36.80265358589529</v>
+        <v>82.62630186564209</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9205840662826</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662828</v>
       </c>
       <c r="L29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,13 +29597,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>99.08630384693146</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H30" t="n">
         <v>125.6804106468432</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3654897447971</v>
+        <v>67.68794957722741</v>
       </c>
       <c r="S30" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.9205840662827</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29697,46 +29697,46 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L31" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597134</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N31" t="n">
-        <v>184.5447916842137</v>
+        <v>54.12331596386084</v>
       </c>
       <c r="O31" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q31" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R31" t="n">
-        <v>203.2148443806685</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9205840662833</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>113.4076081419191</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.14101078849124</v>
+        <v>6.141010788491229</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U33" t="n">
-        <v>163.2679900589675</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9205840662825</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="34">
@@ -29910,13 +29910,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>205.5594069208443</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G34" t="n">
         <v>168.6959906883239</v>
@@ -29934,19 +29934,19 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360785</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78803834926581</v>
+        <v>23.26840654613807</v>
       </c>
       <c r="O34" t="n">
-        <v>212.9205840662825</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P34" t="n">
-        <v>57.89996696047066</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8163712014149</v>
@@ -29955,25 +29955,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9205840662825</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="35">
@@ -30013,13 +30013,13 @@
         <v>248.3112107889442</v>
       </c>
       <c r="L35" t="n">
-        <v>91.69530929016605</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>44.76603156585907</v>
       </c>
       <c r="N35" t="n">
-        <v>248.3112107889442</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>248.3112107889442</v>
@@ -30034,10 +30034,10 @@
         <v>248.3112107889442</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4191925616721</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="U35" t="n">
         <v>248.3112107889442</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>18.42635394724491</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,13 +30071,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
         <v>125.6804106468432</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.947921920714</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3112107889442</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>22.63702514553574</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>222.9433922904097</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>168.6959906883239</v>
@@ -30168,7 +30168,7 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47413857346797</v>
+        <v>150.4906486454311</v>
       </c>
       <c r="L37" t="n">
         <v>31.44053041360786</v>
@@ -30244,7 +30244,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J38" t="n">
-        <v>248.3112107889442</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K38" t="n">
         <v>5.370482769838588</v>
@@ -30253,16 +30253,16 @@
         <v>248.3112107889442</v>
       </c>
       <c r="M38" t="n">
-        <v>169.9138412916221</v>
+        <v>244.6649772971287</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>64.31265095735152</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>248.3112107889442</v>
-      </c>
-      <c r="P38" t="n">
-        <v>13.55824001833905</v>
       </c>
       <c r="Q38" t="n">
         <v>248.3112107889442</v>
@@ -30271,10 +30271,10 @@
         <v>248.3112107889442</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4191925616721</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="U38" t="n">
         <v>248.3112107889442</v>
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>144.7516868351453</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -30308,13 +30308,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
         <v>125.6804106468432</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T39" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>188.0008112398064</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30414,7 +30414,7 @@
         <v>24.46691421597134</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78803834926581</v>
+        <v>96.60235281673471</v>
       </c>
       <c r="O40" t="n">
         <v>36.80265358589529</v>
@@ -30426,10 +30426,10 @@
         <v>126.8163712014149</v>
       </c>
       <c r="R40" t="n">
-        <v>248.3112107889442</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S40" t="n">
-        <v>248.3112107889442</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T40" t="n">
         <v>223.7411167026008</v>
@@ -30438,7 +30438,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="W40" t="n">
         <v>248.3112107889442</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>243.1048738202337</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="C41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="D41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="E41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="F41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="G41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="H41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J41" t="n">
-        <v>75.87638612011797</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="K41" t="n">
-        <v>5.370482769838588</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5895534892124</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5985821377676</v>
+        <v>20.88549498630697</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.5985821377676</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5985821377676</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S41" t="n">
         <v>227.2739512919082</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4191925616721</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="U41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="V41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="W41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="X41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30587,16 +30587,16 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>156.7662018524071</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>147.0973790376003</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30651,7 +30651,7 @@
         <v>24.46691421597134</v>
       </c>
       <c r="N43" t="n">
-        <v>120.1450140359984</v>
+        <v>120.1450140359986</v>
       </c>
       <c r="O43" t="n">
         <v>36.80265358589529</v>
@@ -30672,13 +30672,13 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U43" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5985821377676</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30721,31 +30721,31 @@
         <v>240.5985821377675</v>
       </c>
       <c r="K44" t="n">
+        <v>5.370482769838546</v>
+      </c>
+      <c r="L44" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="L44" t="n">
-        <v>109.4454629156838</v>
-      </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>196.4019512579985</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="Q44" t="n">
+        <v>88.55996792937715</v>
+      </c>
+      <c r="R44" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="R44" t="n">
-        <v>194.2115698873897</v>
-      </c>
       <c r="S44" t="n">
-        <v>227.2739512919082</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="T44" t="n">
         <v>240.5985821377675</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>81.8448288970542</v>
       </c>
       <c r="C45" t="n">
-        <v>56.52398948124488</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319846</v>
+        <v>51.93601990319844</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,16 +30818,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.14101078849124</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2276940613373</v>
@@ -30839,7 +30839,7 @@
         <v>240.5985821377675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30858,10 +30858,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>240.5985821377675</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>150.6171850119009</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30882,22 +30882,22 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360786</v>
+        <v>31.44053041360784</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597134</v>
+        <v>24.46691421597133</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926581</v>
+        <v>15.78803834926579</v>
       </c>
       <c r="O46" t="n">
-        <v>36.80265358589529</v>
+        <v>36.80265358589527</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047066</v>
+        <v>57.89996696047065</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8163712014149</v>
+        <v>231.1733468881477</v>
       </c>
       <c r="R46" t="n">
         <v>203.2148443806685</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455096</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093548</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892291</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722957</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448071</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32463846043629</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796901</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983293</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150811</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827101838315969</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447792</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243496</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615016</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895086</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M12" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N12" t="n">
-        <v>58.081950664713</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.5066711436248</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734738</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514248</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057557</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078601</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026104</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199078</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772603</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508299</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487547</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901133</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J14" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L14" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O14" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T14" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J15" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S15" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U15" t="n">
         <v>0.01469214084505128</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I16" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J16" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K16" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J17" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L17" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M17" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O17" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T17" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J18" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S18" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U18" t="n">
         <v>0.01469214084505128</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I19" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J19" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J20" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L20" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M20" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O20" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J21" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S21" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U21" t="n">
         <v>0.01469214084505128</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I22" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J22" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J23" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L23" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M23" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O23" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J24" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S24" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U24" t="n">
         <v>0.01469214084505128</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I25" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J25" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J26" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L26" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M26" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O26" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T26" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J27" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S27" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U27" t="n">
         <v>0.01469214084505128</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I28" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J28" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J29" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L29" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M29" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O29" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T29" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J30" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S30" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U30" t="n">
         <v>0.01469214084505128</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I31" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J31" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.41738477174551</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638706</v>
       </c>
       <c r="I32" t="n">
-        <v>16.09122641271878</v>
+        <v>16.09122641271879</v>
       </c>
       <c r="J32" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093551</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892297</v>
       </c>
       <c r="L32" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722963</v>
       </c>
       <c r="M32" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175884</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448078</v>
       </c>
       <c r="O32" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043636</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796907</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983297</v>
       </c>
       <c r="R32" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511155486150816</v>
+        <v>9.51115548615082</v>
       </c>
       <c r="T32" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315971</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.03339078173964079</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447794</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I33" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243503</v>
       </c>
       <c r="J33" t="n">
         <v>21.09889372954997</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06136996615018</v>
+        <v>36.0613699661502</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895091</v>
       </c>
       <c r="M33" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457415</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471306</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809978</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078951</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362483</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S33" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586141</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734746</v>
       </c>
       <c r="U33" t="n">
         <v>0.01469214084505128</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I34" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514253</v>
       </c>
       <c r="J34" t="n">
         <v>13.2367678812111</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83516805057559</v>
+        <v>27.8351680505756</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078604</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310745</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64394495199079</v>
+        <v>22.6439449519908</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418291621508304</v>
+        <v>8.418291621508308</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262811370487549</v>
+        <v>3.26281137048755</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901141</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455099</v>
+        <v>0.4173847717455101</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638704</v>
+        <v>4.274541793638707</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09122641271878</v>
+        <v>16.0912264127188</v>
       </c>
       <c r="J44" t="n">
-        <v>35.4250107709355</v>
+        <v>35.42501077093552</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892294</v>
+        <v>53.09290815892298</v>
       </c>
       <c r="L44" t="n">
-        <v>65.8664473672296</v>
+        <v>65.86644736722965</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175882</v>
+        <v>73.28911380175886</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448075</v>
+        <v>74.47500828448079</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043633</v>
+        <v>70.32463846043638</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796905</v>
+        <v>60.02045190796908</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983296</v>
+        <v>45.07285976983299</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815891</v>
+        <v>26.21854616815892</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150816</v>
+        <v>9.511155486150821</v>
       </c>
       <c r="T44" t="n">
-        <v>1.82710183831597</v>
+        <v>1.827101838315972</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964078</v>
+        <v>0.0333907817396408</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233205408447793</v>
+        <v>0.2233205408447795</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053527</v>
+        <v>2.156806276053528</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243501</v>
+        <v>7.688887042243506</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954997</v>
+        <v>21.09889372954998</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615018</v>
+        <v>36.06136996615021</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895088</v>
+        <v>48.48896216895092</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457412</v>
+        <v>56.58433177457416</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471303</v>
+        <v>58.08195066471307</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809976</v>
+        <v>53.13363762809979</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078949</v>
+        <v>42.64442854078952</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362482</v>
+        <v>28.50667114362484</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350306</v>
+        <v>13.86546305350307</v>
       </c>
       <c r="S45" t="n">
-        <v>4.14808109858614</v>
+        <v>4.148081098586142</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734743</v>
+        <v>0.9001384957734749</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505128</v>
+        <v>0.01469214084505129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210905</v>
+        <v>0.1872244396210906</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267515</v>
+        <v>1.664595472267516</v>
       </c>
       <c r="I46" t="n">
-        <v>5.63034951151425</v>
+        <v>5.630349511514255</v>
       </c>
       <c r="J46" t="n">
-        <v>13.2367678812111</v>
+        <v>13.23676788121111</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325033</v>
+        <v>21.75207580325034</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057559</v>
+        <v>27.83516805057561</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078603</v>
+        <v>29.34828193078605</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310744</v>
+        <v>28.65044538310746</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026106</v>
+        <v>26.46332352026107</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199079</v>
+        <v>22.64394495199081</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67749375772604</v>
+        <v>15.67749375772605</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508304</v>
+        <v>8.41829162150831</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487549</v>
+        <v>3.262811370487551</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901138</v>
+        <v>0.7999589692901143</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0102122421611504</v>
+        <v>0.01021224216115041</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>88.73316515533764</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="L11" t="n">
-        <v>48.875888132537</v>
+        <v>48.87588813253706</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784153</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N11" t="n">
-        <v>122.7111663740568</v>
+        <v>77.99187771560558</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423746</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>30.04506100792488</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.6516019580124</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>117.7531394498525</v>
+        <v>119.7571625941459</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740568</v>
+        <v>35.14761765577733</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,40 +35541,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.59464922242157</v>
+        <v>16.59464922242154</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>49.02891963667895</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.53542867516464</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>16.25381735566467</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.50247692892449</v>
+        <v>29.50247692892447</v>
       </c>
       <c r="J13" t="n">
-        <v>74.31020798966223</v>
+        <v>74.31020798966222</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>19.76032639415</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597472</v>
+        <v>67.39519868597471</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>122.7111663740568</v>
+        <v>48.87588813253706</v>
       </c>
       <c r="M14" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N14" t="n">
-        <v>81.38980146561504</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O14" t="n">
-        <v>36.3633379842375</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>32.51391333307784</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.26828800158319</v>
+        <v>39.2682880015832</v>
       </c>
       <c r="L15" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M15" t="n">
-        <v>81.43885522818022</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>81.43885522817999</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,13 +35787,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.5354286751647</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.28468766894304</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.51557919906581</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.48541379778089</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.5449169405814375</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.39519868597466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,37 +35881,37 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>77.2332019915292</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253706</v>
       </c>
       <c r="M17" t="n">
-        <v>122.7111663740568</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560558</v>
       </c>
       <c r="O17" t="n">
-        <v>36.3633379842375</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>47.50451412819558</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.37239145668457</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>98.22715018692068</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.26828800158319</v>
+        <v>39.2682880015832</v>
       </c>
       <c r="L18" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N18" t="n">
-        <v>118.5904960282511</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>81.43885522817999</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398588</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,31 +36121,31 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>23.02049794105984</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="L20" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253706</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784158</v>
+        <v>83.5514789678416</v>
       </c>
       <c r="N20" t="n">
-        <v>77.99187771560555</v>
+        <v>77.99187771560558</v>
       </c>
       <c r="O20" t="n">
-        <v>36.3633379842375</v>
+        <v>36.36333798423753</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>116.3928893977441</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.37239145668457</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.26828800158319</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>119.7571625941459</v>
       </c>
       <c r="M21" t="n">
-        <v>118.5904960282511</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="N21" t="n">
-        <v>122.7111663740568</v>
+        <v>122.7111663740567</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>35.14761765577733</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.736547484403671</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253703</v>
+        <v>48.87588813253706</v>
       </c>
       <c r="M23" t="n">
+        <v>83.5514789678416</v>
+      </c>
+      <c r="N23" t="n">
+        <v>77.99187771560558</v>
+      </c>
+      <c r="O23" t="n">
         <v>122.7111663740568</v>
       </c>
-      <c r="N23" t="n">
-        <v>77.99187771560555</v>
-      </c>
-      <c r="O23" t="n">
-        <v>36.3633379842375</v>
-      </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.7111663740568</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>30.04506100792506</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.4966545071256</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>32.19361387586662</v>
       </c>
       <c r="M24" t="n">
         <v>122.7111663740568</v>
       </c>
       <c r="N24" t="n">
-        <v>35.1476176557775</v>
+        <v>122.7111663740568</v>
       </c>
       <c r="O24" t="n">
         <v>122.7111663740568</v>
       </c>
       <c r="P24" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>137.0441979461647</v>
       </c>
       <c r="K26" t="n">
-        <v>207.550101296444</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L26" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M26" t="n">
         <v>296.4720630341242</v>
@@ -36607,16 +36607,16 @@
         <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
-        <v>249.2839220505201</v>
+        <v>249.2839220505202</v>
       </c>
       <c r="P26" t="n">
         <v>199.3623440479436</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889298</v>
+        <v>18.709014178893</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158319</v>
+        <v>39.2682880015832</v>
       </c>
       <c r="L27" t="n">
         <v>119.7571625941459</v>
@@ -36683,13 +36683,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N27" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O27" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,19 +36741,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.22459337795875</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.21149110781747</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>146.4464454928147</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>33.26257893689081</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>45.82364827974683</v>
       </c>
       <c r="P28" t="n">
-        <v>155.020617105812</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5501012964441</v>
+        <v>207.5501012964443</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988197</v>
+        <v>261.7964721988196</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4720630341243</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N29" t="n">
         <v>290.9124617818882</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505202</v>
+        <v>249.2839220505201</v>
       </c>
       <c r="P29" t="n">
         <v>199.3623440479436</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889304</v>
+        <v>18.70901417889296</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158319</v>
+        <v>39.2682880015832</v>
       </c>
       <c r="L30" t="n">
         <v>119.7571625941459</v>
@@ -36920,13 +36920,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N30" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O30" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.73793381557198</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>188.4536698503113</v>
       </c>
       <c r="N31" t="n">
-        <v>168.7567533349479</v>
+        <v>38.33527761459504</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.705739685614139</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5501012964448</v>
+        <v>207.5501012964441</v>
       </c>
       <c r="L32" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M32" t="n">
-        <v>296.4720630341241</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505201</v>
+        <v>249.2839220505202</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369054</v>
+        <v>124.3606161369055</v>
       </c>
       <c r="R32" t="n">
-        <v>18.7090141788929</v>
+        <v>18.70901417889299</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.26828800158319</v>
+        <v>39.2682880015832</v>
       </c>
       <c r="L33" t="n">
         <v>119.7571625941459</v>
@@ -37157,13 +37157,13 @@
         <v>184.9576916997117</v>
       </c>
       <c r="N33" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O33" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398589</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>60.37675667013362</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>73.99370184783598</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>7.480368196872268</v>
       </c>
       <c r="O34" t="n">
-        <v>176.1179304803873</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.020617105812</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176686</v>
+        <v>7.71262865117663</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>242.9407280191056</v>
       </c>
       <c r="L35" t="n">
-        <v>140.5711974227031</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M35" t="n">
-        <v>83.55147896784158</v>
+        <v>128.3175105337006</v>
       </c>
       <c r="N35" t="n">
-        <v>326.3030885045497</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O35" t="n">
-        <v>284.6745487731817</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,13 +37327,13 @@
         <v>159.751242859567</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155457</v>
+        <v>54.09964090155451</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.03725949703596</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>25.89201822727208</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>84.01651007196303</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>84.01651007196314</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>172.4348246688263</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>297.1870989214813</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M38" t="n">
-        <v>253.4653202594637</v>
+        <v>328.2164562649703</v>
       </c>
       <c r="N38" t="n">
-        <v>77.99187771560555</v>
+        <v>142.3045286729571</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731817</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q38" t="n">
         <v>159.751242859567</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155457</v>
+        <v>54.09964090155451</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>21.03725949703596</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.89201822727208</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>80.81431446746889</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37722,10 +37722,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.09636640827574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.95654265762195</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.20219560449425</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.96360100606532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.7221960176495</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4654416217494</v>
+        <v>289.4744702703046</v>
       </c>
       <c r="M41" t="n">
-        <v>83.55147896784158</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5904598533731</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O41" t="n">
-        <v>276.961920122005</v>
+        <v>57.24883297054448</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0403421194285</v>
+        <v>227.0403421194284</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.0386142083904</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037791</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>104.3569756867326</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7221960176495</v>
+        <v>164.7221960176496</v>
       </c>
       <c r="K44" t="n">
-        <v>235.2280993679289</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>158.3213510482208</v>
+        <v>289.4744702703046</v>
       </c>
       <c r="M44" t="n">
-        <v>83.55147896784158</v>
+        <v>279.9534302258401</v>
       </c>
       <c r="N44" t="n">
-        <v>77.99187771560555</v>
+        <v>318.5904598533731</v>
       </c>
       <c r="O44" t="n">
-        <v>276.961920122005</v>
+        <v>36.36333798423755</v>
       </c>
       <c r="P44" t="n">
         <v>227.0403421194285</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083904</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.32463084585931</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17938957609545</v>
+        <v>18.17938957609542</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158319</v>
+        <v>39.26828800158322</v>
       </c>
       <c r="L45" t="n">
-        <v>119.7571625941459</v>
+        <v>119.757162594146</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9576916997117</v>
+        <v>184.9576916997118</v>
       </c>
       <c r="N45" t="n">
-        <v>208.458920497669</v>
+        <v>208.4589204976691</v>
       </c>
       <c r="O45" t="n">
         <v>134.3890022971983</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398588</v>
+        <v>85.55952557398591</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38154,10 +38154,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>95.41593188705681</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8.94104379967588</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
